--- a/biology/Médecine/CHU_Mohammed_VI_(Oujda)/CHU_Mohammed_VI_(Oujda).xlsx
+++ b/biology/Médecine/CHU_Mohammed_VI_(Oujda)/CHU_Mohammed_VI_(Oujda).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le CHU Mohammed VI (Oujda) est un centre hospitalier universitaire situé dans la ville d'Oujda. Il est affilié au ministère de la Santé et de la Protection sociale[1],[2].
-Ce centre se compose de quatre hôpitaux : l'Hôpital des Spécialités, l'Hôpital Mère-Enfant, le Centre d'Oncologie Hassan II et l'Hôpital de la Santé Mentale et des Maladies Psychiatriques[3].
+Le CHU Mohammed VI (Oujda) est un centre hospitalier universitaire situé dans la ville d'Oujda. Il est affilié au ministère de la Santé et de la Protection sociale,.
+Ce centre se compose de quatre hôpitaux : l'Hôpital des Spécialités, l'Hôpital Mère-Enfant, le Centre d'Oncologie Hassan II et l'Hôpital de la Santé Mentale et des Maladies Psychiatriques.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Capacité litière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hôpital des spécialités (380 lits)[4].
-Hôpital mère-enfant (140 lits)[5].
-Hôpital d'oncologie Hassan II (45 lits)[6].
-Hôpital de la Santé Mentale et des Maladies Psychiatriques (108 lits)[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hôpital des spécialités (380 lits).
+Hôpital mère-enfant (140 lits).
+Hôpital d'oncologie Hassan II (45 lits).
+Hôpital de la Santé Mentale et des Maladies Psychiatriques (108 lits).</t>
         </is>
       </c>
     </row>
